--- a/medicine/Pharmacie/Classe_ATC_C10/Classe_ATC_C10.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_C10/Classe_ATC_C10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC C10, dénommée « Agents réduisant les lipides sériques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC10[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC C10, dénommée « Agents réduisant les lipides sériques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC10. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
 </t>
         </is>
       </c>
@@ -513,17 +525,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C10AA Inhibiteurs de l'HMG-CoA réductase (statines)
-C10AA01 Simvastatine
+          <t>C10AA Inhibiteurs de l'HMG-CoA réductase (statines)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C10AA01 Simvastatine
 C10AA02 Lovastatine
 C10AA03 Pravastatine
 C10AA04 Fluvastatine
 C10AA05 Atorvastatine
 C10AA06 Cérivastatine
 C10AA07 Rosuvastatine
-C10AA08 Pitavastatine
-C10AB Fibrates
-C10AB01 Clofibrate
+C10AA08 Pitavastatine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C10A Agents réduisant les lipides sériques, non associés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C10AB Fibrates</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C10AB01 Clofibrate
 C10AB02 Bézafibrate
 C10AB03 Clofibrate aluminium (en)
 C10AB04 Gemfibrozil
@@ -533,22 +584,124 @@
 C10AB08 Ciprofibrate
 C10AB09 Étofibrate (en)
 C10AB10 Clofibride (en)
-C10AB11 Choline fénofibrate
-C10AC Séquestrants d'acides biliaires
-C10AC01 Colestyramine
+C10AB11 Choline fénofibrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C10A Agents réduisant les lipides sériques, non associés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C10AC Séquestrants d'acides biliaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C10AC01 Colestyramine
 C10AC02 Colestipol (en)
 C10AC03 Colextran (en)
-C10AC04 Colésévélam (en)
-C10AD Acide nicotiniques et dérivés
-C10AD01 Nicéritrol (en)
+C10AC04 Colésévélam (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C10A Agents réduisant les lipides sériques, non associés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C10AD Acide nicotiniques et dérivés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C10AD01 Nicéritrol (en)
 C10AD02 Nicotinique acide
 C10AD03 Nicofuranose (en)
 C10AD04 Aluminium nicotinate (en)
 C10AD05 Nicotinyl alcool (pyridylcarbinol) (en)
 C10AD06 Acipimox (en)
-C10AD52 Acide nicotinique en association
-C10AX Autres agents réduisant les lipides sériques
-C10AX01 Dextrothyroxine (en)
+C10AD52 Acide nicotinique en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C10A Agents réduisant les lipides sériques, non associés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C10AX Autres agents réduisant les lipides sériques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C10AX01 Dextrothyroxine (en)
 C10AX02 Probucol (en)
 C10AX03 Tiadénol (en)
 C10AX05 Méglutol
@@ -564,41 +717,80 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Classe_ATC_C10</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_C10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>C10B Agents réduisant les lipides sériques, en association</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C10BA Inhibiteurs de l'HMG-CoA réductase en association avec d'autres modificateurs des lipides
-C10BA01 Lovastatine et acide nicotinique (en)
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C10BA Inhibiteurs de l'HMG-CoA réductase en association avec d'autres modificateurs des lipides</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C10BA01 Lovastatine et acide nicotinique (en)
 C10BA02 Simvastatine et ézétimibe (en)
 C10BA03 Pravastatine et fénofibrate
 C10BA04 Simvastatine et fénofibrate
 C10BA05 Atorvastatine et ézétimibe (en)
-C10BA06 Rosuvastatine et ézétimibe
-C10BX Inhibiteurs de l'HMG-CoA réductase, autres associations
-C10BX01 Simvastatine et acide acétylsalicylique
+C10BA06 Rosuvastatine et ézétimibe</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C10B Agents réduisant les lipides sériques, en association</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C10BX Inhibiteurs de l'HMG-CoA réductase, autres associations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C10BX01 Simvastatine et acide acétylsalicylique
 C10BX02 Pravastatine et acide acétylsalicylique
 C10BX03 Atorvastatine et amlodipine (en)
 C10BX04 Simvastatine, acide acétylsalicylique et ramipril
